--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/42/word_level_predictions_42.xlsx
@@ -1698,104 +1698,104 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3385,239 +3385,239 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Calibrate</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Calibrate</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>36</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>37</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>38</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -7597,393 +7597,393 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>17</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9290,522 +9290,522 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>5</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>16</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" s="2" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>5</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>17</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>5</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>18</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>5</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>19</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>5</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>20</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>5</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>21</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>5</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>22</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>5</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>23</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>5</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>24</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>5</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>25</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/42/word_level_predictions_42.xlsx
@@ -1698,104 +1698,104 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G27" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3385,239 +3385,239 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Calibrate</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>36</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>37</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>39</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Calibrate</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -7621,369 +7621,369 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9290,522 +9290,522 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>whether</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>warped</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>damaged</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
